--- a/chica_OOP/channel_data/dataframe_trial.xlsx
+++ b/chica_OOP/channel_data/dataframe_trial.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>output pressure</t>
+    <t>x</t>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>metal_temperature</t>
+  </si>
+  <si>
+    <t>developed_coolant_temperature</t>
   </si>
 </sst>
 </file>
@@ -377,293 +386,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9458990.448810309</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>9343480.4393363</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>9035947.893047618</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>8517838.997751458</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>7616768.729974298</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>9259624.33912508</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>9145838.778710827</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8842857.428906919</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8332265.83363477</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>7443755.811263672</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>8815735.198128019</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>8705830.675896481</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>8413093.50220318</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>7919427.024578616</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>7059208.92107824</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>8072630.192691354</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>7969364.120093237</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>7694154.011075607</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>7229462.028647971</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>6417725.132403838</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>7191351.638167468</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>7096502.635070355</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>6843545.347347331</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>6415757.055006938</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>5666180.281866804</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
